--- a/Test/xlsx/3.xlsx
+++ b/Test/xlsx/3.xlsx
@@ -5646,2092 +5646,2092 @@
   </cellStyleXfs>
   <cellXfs count="697">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="737" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="801" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="813" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="849" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="852" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="855" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="813" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="865" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="868" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="870" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="886" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="897" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="909" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="913" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="924" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="930" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="940" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="941" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="945" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="951" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="956" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="957" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="959" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="962" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="963" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="965" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="969" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="971" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="972" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="974" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="975" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="977" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="978" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="981" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="983" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="984" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="986" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="989" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="990" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="992" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="993" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="995" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="998" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="999" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1001" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1004" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1005" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1007" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1010" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1011" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1013" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1017" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1019" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1020" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1022" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1023" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1025" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1026" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1031" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1035" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1038" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="995" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1041" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1043" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
